--- a/统计.xlsx
+++ b/统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>project</t>
   </si>
@@ -42,6 +42,9 @@
   <si>
     <t>pydantic</t>
   </si>
+  <si>
+    <t>#func为生成的测试</t>
+  </si>
 </sst>
 </file>
 
@@ -49,9 +52,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,12 +66,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -77,30 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,9 +166,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,24 +180,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,54 +208,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,61 +218,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,121 +398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,8 +427,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,36 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -474,11 +459,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,11 +481,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,153 +526,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -994,10 +1015,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1011,10 +1032,10 @@
       <c r="B2">
         <v>303</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>950</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1456</v>
       </c>
       <c r="E2">
@@ -1029,10 +1050,10 @@
       <c r="B3">
         <v>61</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>221</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>529</v>
       </c>
       <c r="E3">
@@ -1047,10 +1068,10 @@
       <c r="B4">
         <v>59</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>298</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>338</v>
       </c>
       <c r="E4">
@@ -1065,15 +1086,20 @@
       <c r="B5">
         <v>27</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>89</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>145</v>
       </c>
       <c r="E5">
         <f>C5+D5</f>
         <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>project</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>#total</t>
+  </si>
+  <si>
+    <t>#indegree=0</t>
   </si>
   <si>
     <t>numpy</t>
@@ -51,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,37 +69,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,7 +115,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +152,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -141,69 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,43 +233,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,139 +353,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,8 +430,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,39 +465,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,90 +509,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,61 +616,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,15 +1003,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,10 +1027,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>303</v>
@@ -1042,10 +1048,13 @@
         <f>C2+D2</f>
         <v>2406</v>
       </c>
+      <c r="F2">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>61</v>
@@ -1060,10 +1069,13 @@
         <f>C3+D3</f>
         <v>750</v>
       </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>59</v>
@@ -1078,10 +1090,13 @@
         <f>C4+D4</f>
         <v>636</v>
       </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>27</v>
@@ -1096,10 +1111,13 @@
         <f>C5+D5</f>
         <v>234</v>
       </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
